--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaroslav\Desktop\Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0CEB52-ABBD-4278-A4DF-C74C2900FFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481FAA2F-8C4A-44CC-B9FE-56571296ADE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{971F072C-2AB9-479B-BC81-A82153525D3A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="286">
   <si>
     <t>Console</t>
   </si>
@@ -858,15 +858,6 @@
     <t>The Witcher: Enhanced Edition</t>
   </si>
   <si>
-    <t>PS1-logo.svg</t>
-  </si>
-  <si>
-    <t>PS2-logo.jpg</t>
-  </si>
-  <si>
-    <t>PS3-logo.png</t>
-  </si>
-  <si>
     <t>Tony Hawks Punderground 2</t>
   </si>
   <si>
@@ -880,6 +871,30 @@
   </si>
   <si>
     <t>PS5</t>
+  </si>
+  <si>
+    <t>Wii</t>
+  </si>
+  <si>
+    <t>Wii Sports</t>
+  </si>
+  <si>
+    <t>Logo\PS1-logo.svg</t>
+  </si>
+  <si>
+    <t>Logo\PS2-logo.jpg</t>
+  </si>
+  <si>
+    <t>Logo\PS3-logo.png</t>
+  </si>
+  <si>
+    <t>Logo\PS4-logo.png</t>
+  </si>
+  <si>
+    <t>Logo\PS5-logo.png</t>
+  </si>
+  <si>
+    <t>Logo\PSP-logo.png</t>
   </si>
 </sst>
 </file>
@@ -961,7 +976,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -999,12 +1014,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1032,6 +1056,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1394,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFC7A79-9DA9-4027-B2AD-6292883391AD}">
   <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1425,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1439,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1453,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -1467,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1481,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -1495,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -1509,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -1523,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -1537,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>50</v>
@@ -1551,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -1565,7 +1592,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -1579,7 +1606,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>16</v>
@@ -1593,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
@@ -1607,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
@@ -1621,7 +1648,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -1635,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1649,7 +1676,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>21</v>
@@ -1663,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
@@ -1677,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
@@ -1691,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>24</v>
@@ -1705,7 +1732,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
@@ -1719,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>51</v>
@@ -1733,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -1747,7 +1774,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -1761,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
@@ -1775,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -1789,7 +1816,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
@@ -1803,7 +1830,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>31</v>
@@ -1817,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>32</v>
@@ -1831,7 +1858,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>33</v>
@@ -1845,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>52</v>
@@ -1859,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>53</v>
@@ -1873,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>54</v>
@@ -1887,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>55</v>
@@ -1901,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>56</v>
@@ -1915,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>57</v>
@@ -1929,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>58</v>
@@ -1943,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>59</v>
@@ -1957,10 +1984,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D40" s="8">
         <v>15</v>
@@ -1971,7 +1998,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>60</v>
@@ -1985,7 +2012,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>35</v>
@@ -1999,7 +2026,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>36</v>
@@ -2013,7 +2040,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>37</v>
@@ -2027,7 +2054,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>61</v>
@@ -2041,7 +2068,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>62</v>
@@ -2055,7 +2082,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>63</v>
@@ -2067,7 +2094,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>64</v>
@@ -2081,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>38</v>
@@ -2095,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>65</v>
@@ -2109,7 +2136,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>66</v>
@@ -2123,7 +2150,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>67</v>
@@ -2137,7 +2164,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>68</v>
@@ -2151,7 +2178,7 @@
         <v>34</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>69</v>
@@ -2165,7 +2192,7 @@
         <v>34</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>70</v>
@@ -2179,7 +2206,7 @@
         <v>34</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>71</v>
@@ -2193,7 +2220,7 @@
         <v>34</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>72</v>
@@ -2207,7 +2234,7 @@
         <v>34</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>39</v>
@@ -2221,7 +2248,7 @@
         <v>34</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>73</v>
@@ -2235,7 +2262,7 @@
         <v>34</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>74</v>
@@ -2249,7 +2276,7 @@
         <v>34</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>75</v>
@@ -2261,7 +2288,7 @@
         <v>34</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>76</v>
@@ -2273,7 +2300,7 @@
         <v>34</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
@@ -2287,7 +2314,7 @@
         <v>34</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>77</v>
@@ -2301,7 +2328,7 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>78</v>
@@ -2315,7 +2342,7 @@
         <v>34</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>79</v>
@@ -2327,7 +2354,7 @@
         <v>34</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>80</v>
@@ -2341,7 +2368,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>81</v>
@@ -2355,7 +2382,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>82</v>
@@ -2369,7 +2396,7 @@
         <v>34</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>83</v>
@@ -2381,7 +2408,7 @@
         <v>34</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>84</v>
@@ -2395,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>85</v>
@@ -2407,7 +2434,7 @@
         <v>34</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>86</v>
@@ -2421,7 +2448,7 @@
         <v>34</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>87</v>
@@ -2435,7 +2462,7 @@
         <v>34</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>88</v>
@@ -2449,7 +2476,7 @@
         <v>34</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>89</v>
@@ -2463,7 +2490,7 @@
         <v>34</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>90</v>
@@ -2477,7 +2504,7 @@
         <v>34</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>91</v>
@@ -2491,7 +2518,7 @@
         <v>34</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>92</v>
@@ -2505,7 +2532,7 @@
         <v>34</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>93</v>
@@ -2519,7 +2546,7 @@
         <v>34</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>94</v>
@@ -2533,7 +2560,7 @@
         <v>34</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>95</v>
@@ -2547,7 +2574,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>96</v>
@@ -2561,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>97</v>
@@ -2575,7 +2602,7 @@
         <v>34</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>98</v>
@@ -2589,7 +2616,7 @@
         <v>34</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>99</v>
@@ -2603,7 +2630,7 @@
         <v>34</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>100</v>
@@ -2616,7 +2643,9 @@
       <c r="A88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C88" s="3" t="s">
         <v>42</v>
       </c>
@@ -2628,7 +2657,9 @@
       <c r="A89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C89" s="3" t="s">
         <v>101</v>
       </c>
@@ -2640,7 +2671,9 @@
       <c r="A90" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C90" s="3" t="s">
         <v>102</v>
       </c>
@@ -2652,7 +2685,9 @@
       <c r="A91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C91" s="3" t="s">
         <v>43</v>
       </c>
@@ -2664,7 +2699,9 @@
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C92" s="3" t="s">
         <v>103</v>
       </c>
@@ -2676,7 +2713,9 @@
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C93" s="3" t="s">
         <v>104</v>
       </c>
@@ -2688,7 +2727,9 @@
       <c r="A94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C94" s="3" t="s">
         <v>105</v>
       </c>
@@ -2700,7 +2741,9 @@
       <c r="A95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C95" s="3" t="s">
         <v>106</v>
       </c>
@@ -2712,7 +2755,9 @@
       <c r="A96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C96" s="3" t="s">
         <v>107</v>
       </c>
@@ -2724,7 +2769,9 @@
       <c r="A97" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C97" s="3" t="s">
         <v>108</v>
       </c>
@@ -2736,7 +2783,9 @@
       <c r="A98" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C98" s="3" t="s">
         <v>109</v>
       </c>
@@ -2748,7 +2797,9 @@
       <c r="A99" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C99" s="3" t="s">
         <v>110</v>
       </c>
@@ -2760,7 +2811,9 @@
       <c r="A100" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C100" s="3" t="s">
         <v>111</v>
       </c>
@@ -2772,7 +2825,9 @@
       <c r="A101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C101" s="3" t="s">
         <v>44</v>
       </c>
@@ -2784,7 +2839,9 @@
       <c r="A102" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C102" s="3" t="s">
         <v>112</v>
       </c>
@@ -2796,7 +2853,9 @@
       <c r="A103" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C103" s="3" t="s">
         <v>113</v>
       </c>
@@ -2808,7 +2867,9 @@
       <c r="A104" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C104" s="3" t="s">
         <v>114</v>
       </c>
@@ -2820,7 +2881,9 @@
       <c r="A105" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C105" s="3" t="s">
         <v>115</v>
       </c>
@@ -2832,7 +2895,9 @@
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C106" s="3" t="s">
         <v>116</v>
       </c>
@@ -2844,7 +2909,9 @@
       <c r="A107" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="C107" s="3" t="s">
         <v>117</v>
       </c>
@@ -2856,7 +2923,9 @@
       <c r="A108" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C108" s="3" t="s">
         <v>118</v>
       </c>
@@ -2868,7 +2937,9 @@
       <c r="A109" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C109" s="3" t="s">
         <v>46</v>
       </c>
@@ -2880,7 +2951,9 @@
       <c r="A110" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C110" s="3" t="s">
         <v>119</v>
       </c>
@@ -2892,7 +2965,9 @@
       <c r="A111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C111" s="3" t="s">
         <v>120</v>
       </c>
@@ -2904,7 +2979,9 @@
       <c r="A112" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C112" s="3" t="s">
         <v>121</v>
       </c>
@@ -2916,7 +2993,9 @@
       <c r="A113" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C113" s="3" t="s">
         <v>122</v>
       </c>
@@ -2928,7 +3007,9 @@
       <c r="A114" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C114" s="3" t="s">
         <v>47</v>
       </c>
@@ -2940,7 +3021,9 @@
       <c r="A115" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="C115" s="3" t="s">
         <v>123</v>
       </c>
@@ -3022,11 +3105,13 @@
     </row>
     <row r="122" spans="1:4" ht="15" thickBot="1">
       <c r="A122" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B122" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C122" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D122" s="5">
         <v>15</v>
@@ -3034,11 +3119,13 @@
     </row>
     <row r="123" spans="1:4" ht="15" thickBot="1">
       <c r="A123" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C123" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D123" s="5">
         <v>14</v>
@@ -3046,20 +3133,26 @@
     </row>
     <row r="124" spans="1:4" ht="15" thickBot="1">
       <c r="A124" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B124" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="C124" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D124" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15" thickBot="1">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="3"/>
+      <c r="C125" s="13" t="s">
+        <v>279</v>
+      </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4" ht="15" thickBot="1">
@@ -4335,11 +4428,17 @@
     <hyperlink ref="B12" r:id="rId3" xr:uid="{4221B82B-484B-441D-A47E-878D3A41E5E9}"/>
     <hyperlink ref="B13:B39" r:id="rId4" display="PS2-logo.jpg" xr:uid="{49EAF121-2673-4576-B038-7B3EB8B62B1E}"/>
     <hyperlink ref="B42:B87" r:id="rId5" display="PS3-logo.png" xr:uid="{A7E2724E-E0F4-4E5B-8B71-32AFD7ECCEE4}"/>
-    <hyperlink ref="B40" r:id="rId6" xr:uid="{10A71C18-D146-4B55-A97C-CA62DBEE2C8A}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{CDD17FC8-9E38-4820-B7E7-32F6C5C5B35F}"/>
+    <hyperlink ref="B40" r:id="rId6" display="PS2-logo.jpg" xr:uid="{10A71C18-D146-4B55-A97C-CA62DBEE2C8A}"/>
+    <hyperlink ref="B2" r:id="rId7" display="PS1-logo.svg" xr:uid="{2C1BD3CB-6043-4BF5-AFE5-7D939543D4DB}"/>
+    <hyperlink ref="B88" r:id="rId8" xr:uid="{676F9A31-A156-4E0D-A2B5-FD22BCCE6A50}"/>
+    <hyperlink ref="B89:B107" r:id="rId9" display="Logo\PS4-logo.png" xr:uid="{35A7D857-FCFF-4447-BA83-0F3D82CB4A3E}"/>
+    <hyperlink ref="B122" r:id="rId10" xr:uid="{91EFDBA4-F454-4858-B3D6-744486A71576}"/>
+    <hyperlink ref="B123:B124" r:id="rId11" display="Logo\PS5-logo.png" xr:uid="{54070AE5-03C5-4F6D-8976-7090F4D00AEC}"/>
+    <hyperlink ref="B108" r:id="rId12" display="Logo\PSP-logo.jpg" xr:uid="{C6F2D2B6-A123-4B01-A3D3-8A23D4D52E1F}"/>
+    <hyperlink ref="B109:B115" r:id="rId13" display="Logo\PSP-logo.jpg" xr:uid="{1717039F-5FD8-4746-9007-BC21850332A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 
